--- a/ops.xlsx
+++ b/ops.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\find_missing_keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C024C02-5F1E-47AE-AC45-DC808A3DE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C2C77A-4EBE-45F7-93B7-30917C2BEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="9050" windowWidth="29730" windowHeight="10520" xr2:uid="{489ED11D-4CA5-4DF6-88C2-46FD532B6C11}"/>
+    <workbookView xWindow="12450" yWindow="8920" windowWidth="29730" windowHeight="10520" xr2:uid="{489ED11D-4CA5-4DF6-88C2-46FD532B6C11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>OpsSystem_Suit_Name_26340_001</t>
   </si>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>OpsSystem_Suit_Name_26341_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,11 +617,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0ED8CB-81BF-429F-B944-0015EDA16D2A}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -625,322 +627,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
+      <c r="A1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
     </row>
